--- a/RepairAirplanesWPF/акт об оказании услуг.xlsx
+++ b/RepairAirplanesWPF/акт об оказании услуг.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Исполнитель:</t>
   </si>
@@ -340,6 +340,69 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -360,69 +423,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,7 +735,7 @@
   <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11:AG11"/>
+      <selection activeCell="AK14" sqref="AK14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -748,228 +748,230 @@
     <row r="1" spans="2:33" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:33" s="1" customFormat="1" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:33" s="1" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
     </row>
     <row r="4" spans="2:33" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:33" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
     </row>
     <row r="6" spans="2:33" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
     </row>
     <row r="8" spans="2:33" s="1" customFormat="1" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:33" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="25" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25" t="s">
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25" t="s">
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="31"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="18"/>
     </row>
     <row r="10" spans="2:33" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="24"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="32"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="21"/>
     </row>
     <row r="11" spans="2:33" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="17">
+      <c r="B11" s="25">
         <v>1</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="35"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="24"/>
     </row>
     <row r="12" spans="2:33" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
@@ -1007,74 +1009,74 @@
     </row>
     <row r="13" spans="2:33" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="2:33" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
     </row>
     <row r="15" spans="2:33" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
     </row>
     <row r="16" spans="2:33" s="1" customFormat="1" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
@@ -1112,74 +1114,74 @@
     </row>
     <row r="17" spans="2:33" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="U18" s="11" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="U18" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
     </row>
     <row r="19" spans="2:33" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="U19" s="13" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="U19" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
     </row>
     <row r="20" spans="2:33" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
@@ -1200,61 +1202,61 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="4"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
     </row>
     <row r="21" spans="2:33" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B3:AF3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:AG5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:AG7"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:T10"/>
-    <mergeCell ref="U9:W10"/>
-    <mergeCell ref="X9:Y10"/>
-    <mergeCell ref="Z9:AG10"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="X11:Y11"/>
     <mergeCell ref="B21:Q21"/>
     <mergeCell ref="B14:AG15"/>
     <mergeCell ref="B18:Q18"/>
     <mergeCell ref="U18:AG18"/>
     <mergeCell ref="B19:Q19"/>
     <mergeCell ref="U19:AG20"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:T10"/>
+    <mergeCell ref="U9:W10"/>
+    <mergeCell ref="X9:Y10"/>
+    <mergeCell ref="Z9:AG10"/>
+    <mergeCell ref="B3:AF3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:AG5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:AG7"/>
   </mergeCells>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
